--- a/datafiles/companyAccountStatement.xlsx
+++ b/datafiles/companyAccountStatement.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7E1EC-BA25-A24B-9069-DC0F25344699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681D0760-ED90-164D-BD33-2F9768AE3E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>sethiya</t>
   </si>
@@ -73,6 +74,27 @@
   </si>
   <si>
     <t>JUL</t>
+  </si>
+  <si>
+    <t>reportType</t>
+  </si>
+  <si>
+    <t>searchData</t>
+  </si>
+  <si>
+    <t>reportFilter</t>
+  </si>
+  <si>
+    <t>Users Details</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -560,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329D4C70-F440-4CEC-853B-C3F821B8091B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -610,4 +632,94 @@
   <phoneticPr fontId="6" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFBAA96-B208-724F-9D21-0F6300000FA5}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="J5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datafiles/companyAccountStatement.xlsx
+++ b/datafiles/companyAccountStatement.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/IdeaProjects/FalconMain/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681D0760-ED90-164D-BD33-2F9768AE3E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D64AA7-B52D-6240-98FC-A89033DAC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19000" yWindow="1760" windowWidth="14800" windowHeight="8020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>sethiya</t>
   </si>
@@ -582,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329D4C70-F440-4CEC-853B-C3F821B8091B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -638,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFBAA96-B208-724F-9D21-0F6300000FA5}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -722,4 +723,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360D0CC8-594D-E84F-A1ED-74D00A0E6728}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="5">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>